--- a/sem1/T_CО-ИП-21-2.xlsx
+++ b/sem1/T_CО-ИП-21-2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/information-systems-testing/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137CF6B1-7619-ED40-8B2E-32E388F2A714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D8299B-471F-C74C-9A38-18E0C8F347B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (подгруппа 1)" sheetId="1" r:id="rId1"/>
-    <sheet name="Успеваемость (подгруппа 1)" sheetId="2" r:id="rId2"/>
-    <sheet name="Посещаемость (подгруппа 2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Посещаемость (подгруппа 2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Успеваемость (подгруппа 1)" sheetId="2" r:id="rId3"/>
     <sheet name="Успеваемость (подгруппа 2)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="36">
   <si>
     <t>№</t>
   </si>
@@ -169,9 +169,6 @@
     <t>Радченко Данил Сергеевич</t>
   </si>
   <si>
-    <t>Малкова Алиса</t>
-  </si>
-  <si>
     <t>Кодинцев Никита Владимирович</t>
   </si>
   <si>
@@ -219,6 +216,15 @@
   <si>
     <t>Лаб 2</t>
   </si>
+  <si>
+    <t>Лаб 3</t>
+  </si>
+  <si>
+    <t>Лаб 4</t>
+  </si>
+  <si>
+    <t>Лаб 5</t>
+  </si>
 </sst>
 </file>
 
@@ -227,7 +233,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -273,6 +279,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -515,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -661,21 +673,12 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -737,6 +740,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1969,16 +1984,16 @@
   <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="192" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J7" sqref="J7"/>
+      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.33203125" style="1" customWidth="1"/>
-    <col min="3" max="8" width="6.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="23" width="9.1640625" style="14" customWidth="1"/>
+    <col min="3" max="10" width="6.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="23" width="9.1640625" style="14" customWidth="1"/>
     <col min="24" max="29" width="8.83203125" style="14" customWidth="1"/>
     <col min="30" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -2011,14 +2026,30 @@
       <c r="I1" s="25">
         <v>45188</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
+      <c r="J1" s="25">
+        <v>45195</v>
+      </c>
+      <c r="K1" s="25">
+        <v>45202</v>
+      </c>
+      <c r="L1" s="25">
+        <v>45202</v>
+      </c>
+      <c r="M1" s="25">
+        <v>45204</v>
+      </c>
+      <c r="N1" s="3">
+        <v>45209</v>
+      </c>
+      <c r="O1" s="25">
+        <v>45211</v>
+      </c>
+      <c r="P1" s="25">
+        <v>45212</v>
+      </c>
+      <c r="Q1" s="88">
+        <v>45216</v>
+      </c>
       <c r="R1" s="25"/>
       <c r="S1" s="25"/>
       <c r="T1" s="25"/>
@@ -2066,14 +2097,30 @@
       <c r="I2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
+      <c r="J2" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="39" t="s">
+        <v>4</v>
+      </c>
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
@@ -2121,14 +2168,30 @@
       <c r="I3" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
+      <c r="J3" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="39" t="s">
+        <v>4</v>
+      </c>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
@@ -2176,14 +2239,30 @@
       <c r="I4" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
+      <c r="J4" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="39" t="s">
+        <v>3</v>
+      </c>
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
@@ -2231,14 +2310,30 @@
       <c r="I5" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
+      <c r="J5" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="39" t="s">
+        <v>3</v>
+      </c>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
       <c r="T5" s="13"/>
@@ -2266,7 +2361,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="62" t="s">
         <v>4</v>
@@ -2286,14 +2381,30 @@
       <c r="I6" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
+      <c r="J6" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="39" t="s">
+        <v>3</v>
+      </c>
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
@@ -2321,16 +2432,16 @@
         <v>9</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="62" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="62" t="s">
         <v>3</v>
@@ -2341,14 +2452,30 @@
       <c r="I7" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
+      <c r="J7" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="39" t="s">
+        <v>3</v>
+      </c>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
@@ -2396,14 +2523,30 @@
       <c r="I8" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="J8" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="39" t="s">
+        <v>4</v>
+      </c>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
@@ -2446,19 +2589,35 @@
         <v>4</v>
       </c>
       <c r="H9" s="62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I9" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
+      <c r="J9" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="39" t="s">
+        <v>4</v>
+      </c>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
@@ -2506,14 +2665,30 @@
       <c r="I10" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
+      <c r="J10" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="39" t="s">
+        <v>4</v>
+      </c>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
@@ -2561,14 +2736,30 @@
       <c r="I11" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
+      <c r="J11" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="39" t="s">
+        <v>4</v>
+      </c>
       <c r="R11" s="13"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
@@ -2616,14 +2807,30 @@
       <c r="I12" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
+      <c r="J12" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="39" t="s">
+        <v>4</v>
+      </c>
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
@@ -2663,7 +2870,7 @@
         <v>4</v>
       </c>
       <c r="G13" s="62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="62" t="s">
         <v>3</v>
@@ -2671,14 +2878,30 @@
       <c r="I13" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
+      <c r="J13" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="39" t="s">
+        <v>4</v>
+      </c>
       <c r="R13" s="13"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
@@ -2705,35 +2928,51 @@
       <c r="B14" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
+      <c r="C14" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="86" t="s">
+        <v>3</v>
+      </c>
       <c r="R14" s="51"/>
       <c r="S14" s="51"/>
       <c r="T14" s="51"/>
@@ -2758,37 +2997,53 @@
         <v>14</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
+        <v>17</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="87" t="s">
+        <v>4</v>
+      </c>
       <c r="R15" s="60"/>
       <c r="S15" s="60"/>
       <c r="T15" s="60"/>
@@ -2809,18 +3064,18 @@
       <c r="AI15" s="20"/>
     </row>
     <row r="16" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
       <c r="O16" s="56"/>
       <c r="P16" s="56"/>
       <c r="Q16" s="56"/>
@@ -2864,500 +3119,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S17"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="209" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" style="1" customWidth="1"/>
-    <col min="3" max="9" width="9.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="9.1640625" style="1" customWidth="1"/>
-    <col min="19" max="20" width="8.83203125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="9"/>
-    </row>
-    <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="9"/>
-    </row>
-    <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="9"/>
-    </row>
-    <row r="4" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="9"/>
-    </row>
-    <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="9"/>
-    </row>
-    <row r="7" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="9"/>
-    </row>
-    <row r="8" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="9"/>
-    </row>
-    <row r="9" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="9"/>
-    </row>
-    <row r="10" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="9"/>
-    </row>
-    <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="9"/>
-    </row>
-    <row r="12" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="9"/>
-    </row>
-    <row r="13" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="9"/>
-    </row>
-    <row r="14" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="9"/>
-    </row>
-    <row r="15" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="9"/>
-    </row>
-    <row r="16" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>6</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="11"/>
-    </row>
-    <row r="17" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.70078700000000005" right="0.70078700000000005" top="0.751969" bottom="0.751969" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="200" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J16" sqref="J16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" style="1" customWidth="1"/>
-    <col min="3" max="7" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="24" width="9.1640625" style="1" customWidth="1"/>
+    <col min="3" max="16" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="24" width="9.1640625" style="1" customWidth="1"/>
     <col min="25" max="26" width="8.83203125" style="1" customWidth="1"/>
     <col min="27" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -3369,13 +3144,13 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70">
+      <c r="C1" s="67">
         <v>45171</v>
       </c>
       <c r="D1" s="23">
         <v>45174</v>
       </c>
-      <c r="E1" s="71">
+      <c r="E1" s="68">
         <v>45178</v>
       </c>
       <c r="F1" s="25">
@@ -3390,22 +3165,36 @@
       <c r="I1" s="25">
         <v>45189</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
+      <c r="J1" s="25">
+        <v>45195</v>
+      </c>
+      <c r="K1" s="25">
+        <v>45199</v>
+      </c>
+      <c r="L1" s="25">
+        <v>45202</v>
+      </c>
+      <c r="M1" s="25">
+        <v>45203</v>
+      </c>
+      <c r="N1" s="89">
+        <v>45209</v>
+      </c>
+      <c r="O1" s="25">
+        <v>45213</v>
+      </c>
+      <c r="P1" s="25">
+        <v>45216</v>
+      </c>
       <c r="Q1" s="25"/>
       <c r="R1" s="25"/>
       <c r="S1" s="25"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="76"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="73"/>
       <c r="Z1" s="23"/>
       <c r="AA1" s="23"/>
       <c r="AB1" s="21"/>
@@ -3421,15 +3210,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="74" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="75" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="62" t="s">
@@ -3444,20 +3233,34 @@
       <c r="I2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
+      <c r="J2" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="39" t="s">
+        <v>4</v>
+      </c>
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="81"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="78"/>
       <c r="X2" s="60"/>
       <c r="Y2" s="24"/>
       <c r="Z2" s="60"/>
@@ -3475,15 +3278,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="74" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="75" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="62" t="s">
@@ -3498,20 +3301,34 @@
       <c r="I3" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
+      <c r="J3" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="39" t="s">
+        <v>4</v>
+      </c>
       <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="81"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="78"/>
       <c r="X3" s="60"/>
       <c r="Y3" s="24"/>
       <c r="Z3" s="60"/>
@@ -3529,15 +3346,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="74" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="75" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="62" t="s">
@@ -3552,20 +3369,34 @@
       <c r="I4" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
+      <c r="J4" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="39" t="s">
+        <v>3</v>
+      </c>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="81"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="78"/>
       <c r="X4" s="60"/>
       <c r="Y4" s="24"/>
       <c r="Z4" s="60"/>
@@ -3583,15 +3414,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="74" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="75" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="62" t="s">
@@ -3606,20 +3437,34 @@
       <c r="I5" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
+      <c r="J5" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="39" t="s">
+        <v>3</v>
+      </c>
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
-      <c r="T5" s="79"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="81"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="78"/>
       <c r="X5" s="60"/>
       <c r="Y5" s="24"/>
       <c r="Z5" s="60"/>
@@ -3637,15 +3482,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="74" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="78" t="s">
+      <c r="E6" s="75" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="62" t="s">
@@ -3660,20 +3505,34 @@
       <c r="I6" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
+      <c r="J6" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>4</v>
+      </c>
       <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="80"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="81"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="78"/>
       <c r="X6" s="60"/>
       <c r="Y6" s="24"/>
       <c r="Z6" s="60"/>
@@ -3691,15 +3550,15 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="74" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="78" t="s">
+      <c r="E7" s="75" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="62" t="s">
@@ -3714,20 +3573,34 @@
       <c r="I7" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
+      <c r="J7" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>4</v>
+      </c>
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
-      <c r="T7" s="79"/>
-      <c r="U7" s="80"/>
-      <c r="V7" s="80"/>
-      <c r="W7" s="81"/>
+      <c r="T7" s="76"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="77"/>
+      <c r="W7" s="78"/>
       <c r="X7" s="60"/>
       <c r="Y7" s="24"/>
       <c r="Z7" s="60"/>
@@ -3745,15 +3618,15 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="74" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="75" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="62" t="s">
@@ -3768,20 +3641,34 @@
       <c r="I8" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
+      <c r="J8" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>4</v>
+      </c>
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
-      <c r="T8" s="79"/>
-      <c r="U8" s="80"/>
-      <c r="V8" s="80"/>
-      <c r="W8" s="81"/>
+      <c r="T8" s="76"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="78"/>
       <c r="X8" s="60"/>
       <c r="Y8" s="24"/>
       <c r="Z8" s="60"/>
@@ -3799,15 +3686,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="74" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="78" t="s">
+      <c r="E9" s="75" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="62" t="s">
@@ -3822,20 +3709,34 @@
       <c r="I9" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
+      <c r="J9" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>4</v>
+      </c>
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="80"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="81"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="78"/>
       <c r="X9" s="60"/>
       <c r="Y9" s="24"/>
       <c r="Z9" s="60"/>
@@ -3853,15 +3754,15 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="78" t="s">
+      <c r="E10" s="75" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="62" t="s">
@@ -3876,20 +3777,34 @@
       <c r="I10" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
+      <c r="J10" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>4</v>
+      </c>
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="80"/>
-      <c r="V10" s="80"/>
-      <c r="W10" s="81"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="78"/>
       <c r="X10" s="60"/>
       <c r="Y10" s="24"/>
       <c r="Z10" s="60"/>
@@ -3907,16 +3822,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="74" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="78" t="s">
-        <v>32</v>
+      <c r="E11" s="75" t="s">
+        <v>31</v>
       </c>
       <c r="F11" s="62" t="s">
         <v>4</v>
@@ -3930,20 +3845,34 @@
       <c r="I11" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
+      <c r="J11" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>4</v>
+      </c>
       <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
       <c r="S11" s="13"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="80"/>
-      <c r="V11" s="80"/>
-      <c r="W11" s="81"/>
+      <c r="T11" s="76"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="78"/>
       <c r="X11" s="60"/>
       <c r="Y11" s="24"/>
       <c r="Z11" s="60"/>
@@ -3961,46 +3890,60 @@
         <v>11</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
+        <v>28</v>
+      </c>
+      <c r="C12" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="86" t="s">
+        <v>3</v>
+      </c>
       <c r="Q12" s="51"/>
       <c r="R12" s="51"/>
       <c r="S12" s="51"/>
-      <c r="T12" s="85"/>
-      <c r="U12" s="86"/>
-      <c r="V12" s="86"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="88"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="84"/>
+      <c r="X12" s="85"/>
       <c r="Y12" s="45"/>
-      <c r="Z12" s="88"/>
+      <c r="Z12" s="85"/>
       <c r="AA12" s="45"/>
       <c r="AB12" s="43"/>
       <c r="AC12" s="44"/>
@@ -4015,36 +3958,50 @@
         <v>12</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="66" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>31</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
+        <v>31</v>
+      </c>
+      <c r="E13" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="P13" s="87" t="s">
+        <v>4</v>
+      </c>
       <c r="Q13" s="60"/>
       <c r="R13" s="60"/>
       <c r="S13" s="60"/>
@@ -4067,18 +4024,18 @@
     <row r="14" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="46"/>
       <c r="B14" s="46"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
       <c r="O14" s="56"/>
       <c r="P14" s="56"/>
       <c r="Q14" s="56"/>
@@ -4121,12 +4078,520 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="209" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" style="1" customWidth="1"/>
+    <col min="3" max="9" width="9.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="9.1640625" style="1" customWidth="1"/>
+    <col min="19" max="20" width="8.83203125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="9"/>
+    </row>
+    <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="9"/>
+    </row>
+    <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="9"/>
+    </row>
+    <row r="4" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="9"/>
+    </row>
+    <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="9"/>
+    </row>
+    <row r="7" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="9"/>
+    </row>
+    <row r="8" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="9"/>
+    </row>
+    <row r="9" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="9"/>
+    </row>
+    <row r="10" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="9"/>
+    </row>
+    <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="9"/>
+    </row>
+    <row r="12" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="9"/>
+    </row>
+    <row r="13" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="9"/>
+    </row>
+    <row r="14" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="9"/>
+    </row>
+    <row r="15" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="9"/>
+    </row>
+    <row r="16" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>6</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="11"/>
+    </row>
+    <row r="17" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.70078700000000005" right="0.70078700000000005" top="0.751969" bottom="0.751969" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="181" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4153,13 +4618,17 @@
         <v>1</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="F1" s="18" t="s">
+        <v>34</v>
+      </c>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
@@ -4172,7 +4641,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -4190,7 +4659,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -4208,7 +4677,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>3</v>
@@ -4216,8 +4685,12 @@
       <c r="D4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="E4" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>3</v>
+      </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -4230,7 +4703,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>3</v>
@@ -4250,7 +4723,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -4268,7 +4741,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="12"/>
@@ -4286,12 +4759,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="39" t="s">
+        <v>3</v>
+      </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -4306,7 +4781,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="39" t="s">
         <v>3</v>
@@ -4326,7 +4801,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -4344,7 +4819,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -4362,7 +4837,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="39" t="s">
         <v>3</v>
@@ -4382,7 +4857,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
